--- a/output/manos unidas.xlsx
+++ b/output/manos unidas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -350,9 +350,6 @@
   </si>
   <si>
     <t>2010_somalia</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2010_sri lanka</t>
@@ -1840,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2120</v>
+        <v>2565.769164761619</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1962,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2084,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2206,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2328,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>680</v>
+        <v>697.6889104500298</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2430,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -2450,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2572,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8820</v>
+        <v>8947.741473873051</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2694,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2816,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2938,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3060,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3182,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>730</v>
+        <v>748.2960604568028</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3304,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>700</v>
+        <v>752.7964806390332</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3426,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2260</v>
+        <v>2100.656463590606</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3548,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1120</v>
+        <v>1268.249210347625</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3792,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7600</v>
+        <v>8559.234499844169</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3914,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>640</v>
+        <v>899.2426442439591</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4036,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2010</v>
+        <v>2609.688011589589</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4158,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4140</v>
+        <v>4744.762791189912</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4280,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>2550</v>
+        <v>749.9184730334429</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4402,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1010</v>
+        <v>1250.795760575873</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4524,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1550</v>
+        <v>1811.130400316199</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4646,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4160</v>
+        <v>4493.184126335917</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4768,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>27270</v>
+        <v>29601.42505091757</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4890,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>6880</v>
+        <v>7397.509860835168</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5012,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>3240</v>
+        <v>3587.883798243964</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5134,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>800</v>
+        <v>781.1535935570469</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5256,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>790</v>
+        <v>1036.533951644687</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5378,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5500,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>9660</v>
+        <v>11286.24301624575</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5622,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>570</v>
+        <v>647.8358464534491</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5744,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>220</v>
+        <v>234.2356468749991</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5866,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>750</v>
+        <v>785.5022828741129</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5988,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1330</v>
+        <v>1286.515571617672</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -6110,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -6232,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2120</v>
+        <v>2812.435974421079</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -6354,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1190</v>
+        <v>1213.112645064426</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6476,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D40">
         <v>7000000</v>
@@ -6598,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6720,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>380</v>
+        <v>341.5541149051794</v>
       </c>
       <c r="D42">
         <v>4300000</v>
@@ -6842,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>2460</v>
+        <v>2217.474008566157</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6964,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1230</v>
+        <v>1299.344949460393</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -7086,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -7208,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>580</v>
+        <v>557.6321326261259</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -7330,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7432,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -7452,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7574,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7696,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>29640</v>
+        <v>30693.59307868711</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7818,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -8062,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>460</v>
+        <v>513.4456986202239</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -8184,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>7480</v>
+        <v>7761.646190572197</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -8306,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>420</v>
+        <v>471.9591970298227</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -8428,7 +8425,7 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>450</v>
+        <v>478.6685897045245</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -8550,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>690</v>
+        <v>710.2742021758368</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -8672,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>2930</v>
+        <v>2839.92516805933</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8794,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>1170</v>
+        <v>1610.923908476106</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8916,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>9040</v>
+        <v>9271.398233246389</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -9038,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -9160,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -9282,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>2140</v>
+        <v>2292.445156190819</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -9404,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>7150</v>
+        <v>8082.02845866252</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -9526,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -9648,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -9892,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9994,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68">
         <v>0</v>
@@ -10014,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>570</v>
+        <v>612.3436990512633</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -10136,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>1340</v>
+        <v>1280.225469721551</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -10258,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>420</v>
+        <v>401.8350013668368</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -10379,8 +10376,8 @@
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" t="s">
-        <v>112</v>
+      <c r="C72">
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -10496,13 +10493,13 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>2410</v>
+        <v>2799.648876199722</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -10618,13 +10615,13 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>1260</v>
+        <v>1401.47747416771</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -10740,13 +10737,13 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>4580</v>
+        <v>5076.340174387075</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10862,13 +10859,13 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>720</v>
+        <v>743.403784726004</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10984,7 +10981,7 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -11106,13 +11103,13 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>560</v>
+        <v>534.0443668101981</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -11228,13 +11225,13 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>560</v>
+        <v>815.8736791314819</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -11350,13 +11347,13 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>1250</v>
+        <v>1317.890706178356</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -11472,13 +11469,13 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1340</v>
+        <v>1489.459305835934</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -11594,13 +11591,13 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>630</v>
+        <v>948.3318544592602</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -11716,13 +11713,13 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>3420</v>
+        <v>3579.960081455846</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11838,13 +11835,13 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>420</v>
+        <v>466.3491752969743</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11960,13 +11957,13 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>490</v>
+        <v>487.7306818514292</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -12082,13 +12079,13 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -12204,7 +12201,7 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -12326,13 +12323,13 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>770</v>
+        <v>777.227218443918</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -12448,13 +12445,13 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
-        <v>1420</v>
+        <v>1525.562493537689</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -12570,13 +12567,13 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>920</v>
+        <v>1066.426265472019</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -12692,13 +12689,13 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1350</v>
+        <v>1303.425880277445</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -12814,13 +12811,13 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>2120</v>
+        <v>2828.483778716848</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12936,13 +12933,13 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>4600</v>
+        <v>4524.720276132375</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -13058,13 +13055,13 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>2560</v>
+        <v>2635.191563620458</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -13180,13 +13177,13 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -13302,13 +13299,13 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>800</v>
+        <v>1037.747039954749</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -13424,13 +13421,13 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>600</v>
+        <v>670.2645481663891</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -13546,13 +13543,13 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>1120</v>
+        <v>1132.548400540401</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -13668,13 +13665,13 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>1380</v>
+        <v>1446.371630707023</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13790,13 +13787,13 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>640</v>
+        <v>587.1403830380606</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13912,13 +13909,13 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>730</v>
+        <v>711.1128122770988</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -14034,13 +14031,13 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>1240</v>
+        <v>1629.435089125503</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -14156,13 +14153,13 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>2190</v>
+        <v>2350.336824272598</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -14278,13 +14275,13 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>360</v>
+        <v>466.0709276378625</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -14400,13 +14397,13 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105">
-        <v>1310</v>
+        <v>1263.452411343738</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -14522,13 +14519,13 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>430</v>
+        <v>417.6031683854853</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -14644,13 +14641,13 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>610</v>
+        <v>553.2014555484933</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -14766,13 +14763,13 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108">
-        <v>230</v>
+        <v>235.9887666597866</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14888,13 +14885,13 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109">
-        <v>720</v>
+        <v>537.4913682903079</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -15010,13 +15007,13 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D110">
         <v>4300000</v>
@@ -15132,13 +15129,13 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -15254,13 +15251,13 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112">
-        <v>620</v>
+        <v>644.763840173281</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -15376,13 +15373,13 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
-      <c r="C113" t="s">
-        <v>112</v>
+      <c r="C113">
+        <v>0</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -15498,13 +15495,13 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114">
-        <v>630</v>
+        <v>864.5379000312432</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -15620,13 +15617,13 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -15742,13 +15739,13 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15864,13 +15861,13 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -15972,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="AL117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM117">
         <v>0</v>
@@ -15986,13 +15983,13 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -16108,13 +16105,13 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>9310</v>
+        <v>9477.887185090232</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -16230,13 +16227,13 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -16352,13 +16349,13 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>8510</v>
+        <v>8841.561277324312</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -16474,13 +16471,13 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -16582,7 +16579,7 @@
         <v>0</v>
       </c>
       <c r="AL122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM122">
         <v>0</v>
@@ -16596,13 +16593,13 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -16718,13 +16715,13 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16840,13 +16837,13 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16962,13 +16959,13 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D126">
         <v>7000000</v>
@@ -17084,13 +17081,13 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -17206,13 +17203,13 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>890</v>
+        <v>822.1883388417289</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -17328,13 +17325,13 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129">
-        <v>810</v>
+        <v>827.7770138231788</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -17450,13 +17447,13 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>2610</v>
+        <v>2264.394087033834</v>
       </c>
       <c r="D130">
         <v>242452</v>
@@ -17572,13 +17569,13 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -17694,13 +17691,13 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>2850</v>
+        <v>3014.578744505088</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -17816,13 +17813,13 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>4950</v>
+        <v>5094.472660592368</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -17938,13 +17935,13 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134">
-        <v>3230</v>
+        <v>838.188712186125</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -18060,13 +18057,13 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="C135">
-        <v>1370</v>
+        <v>1385.890384668919</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -18182,13 +18179,13 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>1890</v>
+        <v>1928.292679849684</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -18304,13 +18301,13 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>31530</v>
+        <v>31572.90343420398</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -18426,13 +18423,13 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138">
-        <v>880</v>
+        <v>873.9492833067068</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -18548,13 +18545,13 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>1480</v>
+        <v>1469.177610078392</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -18670,13 +18667,13 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140">
-        <v>970</v>
+        <v>865.7498910537106</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -18792,13 +18789,13 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D141">
         <v>305584</v>
@@ -18914,13 +18911,13 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>3360</v>
+        <v>3286.007594293901</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -19036,13 +19033,13 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>5520</v>
+        <v>5437.877690816224</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -19158,13 +19155,13 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>6280</v>
+        <v>6051.685746144485</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -19280,13 +19277,13 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -19402,13 +19399,13 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -19524,13 +19521,13 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -19632,7 +19629,7 @@
         <v>0</v>
       </c>
       <c r="AL147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM147">
         <v>0</v>
@@ -19646,13 +19643,13 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -19768,13 +19765,13 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>10050</v>
+        <v>9690.869064532331</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -19890,13 +19887,13 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -20012,13 +20009,13 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151">
-        <v>9560</v>
+        <v>9541.060212621274</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -20134,13 +20131,13 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -20242,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="AL152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM152">
         <v>0</v>
@@ -20256,13 +20253,13 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="C153">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -20378,13 +20375,13 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>12360</v>
+        <v>11745.7759262897</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -20500,13 +20497,13 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="C155">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -20622,13 +20619,13 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -20744,13 +20741,13 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="C157">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -20866,13 +20863,13 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -20988,13 +20985,13 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159">
-        <v>32220</v>
+        <v>31695.00642862986</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -21110,13 +21107,13 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="C160">
-        <v>3650</v>
+        <v>3487.613616731733</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -21232,13 +21229,13 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161">
-        <v>1600</v>
+        <v>1266.65975140149</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -21354,13 +21351,13 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="C162">
-        <v>430</v>
+        <v>467.435789903935</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -21476,13 +21473,13 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163">
-        <v>460</v>
+        <v>482.9237812079122</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -21598,13 +21595,13 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -21720,13 +21717,13 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="C165">
-        <v>810</v>
+        <v>788.439151581443</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -21842,13 +21839,13 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166">
-        <v>1700</v>
+        <v>1591.319557098113</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -21964,13 +21961,13 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="C167">
-        <v>1110</v>
+        <v>1223.203431665713</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -22086,13 +22083,13 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="C168">
-        <v>1360</v>
+        <v>1325.930225429421</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -22208,13 +22205,13 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169">
-        <v>960</v>
+        <v>909.3123437708064</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -22330,13 +22327,13 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="C170">
-        <v>2390</v>
+        <v>2860.874335573629</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -22452,13 +22449,13 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="C171">
-        <v>9080</v>
+        <v>9258.881972662079</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -22574,13 +22571,13 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172">
-        <v>570</v>
+        <v>528.6449273841434</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -22696,13 +22693,13 @@
     </row>
     <row r="173" spans="1:41">
       <c r="A173" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173">
-        <v>820</v>
+        <v>1057.667740311969</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -22818,13 +22815,13 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174">
-        <v>650</v>
+        <v>692.4450379203138</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -22940,13 +22937,13 @@
     </row>
     <row r="175" spans="1:41">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="C175">
-        <v>1230</v>
+        <v>1223.631935023299</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -23062,13 +23059,13 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="C176">
-        <v>1540</v>
+        <v>1543.763984230257</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -23184,13 +23181,13 @@
     </row>
     <row r="177" spans="1:41">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="C177">
-        <v>2460</v>
+        <v>2384.954170650071</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -23306,13 +23303,13 @@
     </row>
     <row r="178" spans="1:41">
       <c r="A178" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178">
-        <v>1330</v>
+        <v>1291.622214254295</v>
       </c>
       <c r="D178">
         <v>279798</v>
@@ -23428,13 +23425,13 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179">
-        <v>530</v>
+        <v>470.3014046213344</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -23550,13 +23547,13 @@
     </row>
     <row r="180" spans="1:41">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180">
-        <v>590</v>
+        <v>573.9239887389259</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -23672,13 +23669,13 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181">
-        <v>250</v>
+        <v>238.8160458251716</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -23794,13 +23791,13 @@
     </row>
     <row r="182" spans="1:41">
       <c r="A182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
-      <c r="C182" t="s">
-        <v>112</v>
+      <c r="C182">
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -23916,13 +23913,13 @@
     </row>
     <row r="183" spans="1:41">
       <c r="A183" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183">
-        <v>410</v>
+        <v>389.9389667216314</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -24038,13 +24035,13 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
       <c r="C184">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -24160,13 +24157,13 @@
     </row>
     <row r="185" spans="1:41">
       <c r="A185" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185">
-        <v>670</v>
+        <v>683.460336640684</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -24282,13 +24279,13 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
-      <c r="C186" t="s">
-        <v>112</v>
+      <c r="C186">
+        <v>0</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -24404,13 +24401,13 @@
     </row>
     <row r="187" spans="1:41">
       <c r="A187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
       <c r="C187">
-        <v>970</v>
+        <v>922.8902056569669</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -24526,13 +24523,13 @@
     </row>
     <row r="188" spans="1:41">
       <c r="A188" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
       <c r="C188">
-        <v>1520</v>
+        <v>1544.619247249133</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -24648,13 +24645,13 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189">
-        <v>1040</v>
+        <v>907.2574180443885</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -24770,13 +24767,13 @@
     </row>
     <row r="190" spans="1:41">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="C190">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D190">
         <v>257460</v>
@@ -24892,13 +24889,13 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="C191">
-        <v>3490</v>
+        <v>3371.18333653065</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -25014,13 +25011,13 @@
     </row>
     <row r="192" spans="1:41">
       <c r="A192" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="C192">
-        <v>5720</v>
+        <v>5558.73713990153</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -25136,13 +25133,13 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="C193">
-        <v>6640</v>
+        <v>6203.843262938323</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -25258,13 +25255,13 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
       <c r="C194">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -25380,13 +25377,13 @@
     </row>
     <row r="195" spans="1:41">
       <c r="A195" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="C195">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -25502,13 +25499,13 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -25610,7 +25607,7 @@
         <v>0</v>
       </c>
       <c r="AL196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM196">
         <v>0</v>
@@ -25624,13 +25621,13 @@
     </row>
     <row r="197" spans="1:41">
       <c r="A197" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="C197">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -25746,13 +25743,13 @@
     </row>
     <row r="198" spans="1:41">
       <c r="A198" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="C198">
-        <v>10270</v>
+        <v>9693.722968944676</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -25868,13 +25865,13 @@
     </row>
     <row r="199" spans="1:41">
       <c r="A199" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="C199">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -25990,13 +25987,13 @@
     </row>
     <row r="200" spans="1:41">
       <c r="A200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="C200">
-        <v>10510</v>
+        <v>10027.34623102135</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -26112,13 +26109,13 @@
     </row>
     <row r="201" spans="1:41">
       <c r="A201" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="C201">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -26220,7 +26217,7 @@
         <v>0</v>
       </c>
       <c r="AL201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM201">
         <v>0</v>
@@ -26234,13 +26231,13 @@
     </row>
     <row r="202" spans="1:41">
       <c r="A202" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="C202">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D202">
         <v>199927</v>
@@ -26356,13 +26353,13 @@
     </row>
     <row r="203" spans="1:41">
       <c r="A203" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
       <c r="C203">
-        <v>12810</v>
+        <v>11993.48398487312</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -26478,13 +26475,13 @@
     </row>
     <row r="204" spans="1:41">
       <c r="A204" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="C204">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -26600,13 +26597,13 @@
     </row>
     <row r="205" spans="1:41">
       <c r="A205" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
       <c r="C205">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -26722,13 +26719,13 @@
     </row>
     <row r="206" spans="1:41">
       <c r="A206" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
       <c r="C206">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -26844,13 +26841,13 @@
     </row>
     <row r="207" spans="1:41">
       <c r="A207" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
       <c r="C207">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -26966,13 +26963,13 @@
     </row>
     <row r="208" spans="1:41">
       <c r="A208" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
       <c r="C208">
-        <v>34330</v>
+        <v>32399.46517988382</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -27088,13 +27085,13 @@
     </row>
     <row r="209" spans="1:41">
       <c r="A209" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
       <c r="C209">
-        <v>3750</v>
+        <v>3405.472039138021</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -27210,13 +27207,13 @@
     </row>
     <row r="210" spans="1:41">
       <c r="A210" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210">
-        <v>1550</v>
+        <v>1310.892121067789</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -27332,13 +27329,13 @@
     </row>
     <row r="211" spans="1:41">
       <c r="A211" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
       <c r="C211">
-        <v>440</v>
+        <v>465.3887773612468</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -27454,13 +27451,13 @@
     </row>
     <row r="212" spans="1:41">
       <c r="A212" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
       <c r="C212">
-        <v>410</v>
+        <v>493.8183694827482</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -27576,13 +27573,13 @@
     </row>
     <row r="213" spans="1:41">
       <c r="A213" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
       <c r="C213">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -27698,13 +27695,13 @@
     </row>
     <row r="214" spans="1:41">
       <c r="A214" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
       <c r="C214">
-        <v>890</v>
+        <v>817.1226340535979</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -27820,13 +27817,13 @@
     </row>
     <row r="215" spans="1:41">
       <c r="A215" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
       <c r="C215">
-        <v>1760</v>
+        <v>1620.124515672545</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -27942,13 +27939,13 @@
     </row>
     <row r="216" spans="1:41">
       <c r="A216" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
       <c r="C216">
-        <v>1210</v>
+        <v>1225.558111711089</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -28064,13 +28061,13 @@
     </row>
     <row r="217" spans="1:41">
       <c r="A217" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
       <c r="C217">
-        <v>1430</v>
+        <v>1360.10887014004</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -28186,13 +28183,13 @@
     </row>
     <row r="218" spans="1:41">
       <c r="A218" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
       <c r="C218">
-        <v>970</v>
+        <v>929.4690557368662</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -28308,13 +28305,13 @@
     </row>
     <row r="219" spans="1:41">
       <c r="A219" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
       <c r="C219">
-        <v>2490</v>
+        <v>2887.250212489506</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -28430,13 +28427,13 @@
     </row>
     <row r="220" spans="1:41">
       <c r="A220" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
       <c r="C220">
-        <v>9330</v>
+        <v>9418.219737012016</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -28552,13 +28549,13 @@
     </row>
     <row r="221" spans="1:41">
       <c r="A221" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221">
-        <v>380</v>
+        <v>335.38915520098</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -28674,13 +28671,13 @@
     </row>
     <row r="222" spans="1:41">
       <c r="A222" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
       <c r="C222">
-        <v>890</v>
+        <v>1102.527430026863</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -28796,13 +28793,13 @@
     </row>
     <row r="223" spans="1:41">
       <c r="A223" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
       <c r="C223">
-        <v>690</v>
+        <v>711.0361291687414</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -28918,13 +28915,13 @@
     </row>
     <row r="224" spans="1:41">
       <c r="A224" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B224">
         <v>0</v>
       </c>
       <c r="C224">
-        <v>1320</v>
+        <v>1299.811672673934</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -29040,13 +29037,13 @@
     </row>
     <row r="225" spans="1:41">
       <c r="A225" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B225">
         <v>0</v>
       </c>
       <c r="C225">
-        <v>1870</v>
+        <v>1618.597849849475</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -29162,13 +29159,13 @@
     </row>
     <row r="226" spans="1:41">
       <c r="A226" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B226">
         <v>0</v>
       </c>
       <c r="C226">
-        <v>2720</v>
+        <v>2476.863878205093</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -29284,13 +29281,13 @@
     </row>
     <row r="227" spans="1:41">
       <c r="A227" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
       <c r="C227">
-        <v>1360</v>
+        <v>1291.415042301529</v>
       </c>
       <c r="D227">
         <v>279798</v>
@@ -29406,13 +29403,13 @@
     </row>
     <row r="228" spans="1:41">
       <c r="A228" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228">
-        <v>660</v>
+        <v>555.2055623950326</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -29528,13 +29525,13 @@
     </row>
     <row r="229" spans="1:41">
       <c r="A229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
       <c r="C229">
-        <v>620</v>
+        <v>593.1620921048029</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -29650,13 +29647,13 @@
     </row>
     <row r="230" spans="1:41">
       <c r="A230" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B230">
         <v>1</v>
       </c>
       <c r="C230">
-        <v>260</v>
+        <v>242.8459946574492</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -29772,13 +29769,13 @@
     </row>
     <row r="231" spans="1:41">
       <c r="A231" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
-      <c r="C231" t="s">
-        <v>112</v>
+      <c r="C231">
+        <v>0</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -29894,13 +29891,13 @@
     </row>
     <row r="232" spans="1:41">
       <c r="A232" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
       <c r="C232">
-        <v>470</v>
+        <v>419.1838602515346</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -30016,13 +30013,13 @@
     </row>
     <row r="233" spans="1:41">
       <c r="A233" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
       <c r="C233">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -30138,13 +30135,13 @@
     </row>
     <row r="234" spans="1:41">
       <c r="A234" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B234">
         <v>1</v>
       </c>
       <c r="C234">
-        <v>700</v>
+        <v>698.3833464078615</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -30260,13 +30257,13 @@
     </row>
     <row r="235" spans="1:41">
       <c r="A235" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
-      <c r="C235" t="s">
-        <v>112</v>
+      <c r="C235">
+        <v>0</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -30382,13 +30379,13 @@
     </row>
     <row r="236" spans="1:41">
       <c r="A236" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B236">
         <v>1</v>
       </c>
       <c r="C236">
-        <v>5010</v>
+        <v>3843.198240901342</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -30504,13 +30501,13 @@
     </row>
     <row r="237" spans="1:41">
       <c r="A237" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B237">
         <v>1</v>
       </c>
       <c r="C237">
-        <v>1110</v>
+        <v>951.3148210424945</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -30626,13 +30623,13 @@
     </row>
     <row r="238" spans="1:41">
       <c r="A238" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B238">
         <v>1</v>
       </c>
       <c r="C238">
-        <v>930</v>
+        <v>1140.447753778042</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -30748,13 +30745,13 @@
     </row>
     <row r="239" spans="1:41">
       <c r="A239" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
       <c r="C239">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D239">
         <v>199927</v>
@@ -30870,13 +30867,13 @@
     </row>
     <row r="240" spans="1:41">
       <c r="A240" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B240">
         <v>0</v>
       </c>
       <c r="C240">
-        <v>12100</v>
+        <v>11951.20944634967</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -30992,13 +30989,13 @@
     </row>
     <row r="241" spans="1:41">
       <c r="A241" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
       <c r="C241">
-        <v>690</v>
+        <v>720.1523351943922</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -31114,13 +31111,13 @@
     </row>
     <row r="242" spans="1:41">
       <c r="A242" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
       <c r="C242">
-        <v>260</v>
+        <v>245.326738733565</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -31236,13 +31233,13 @@
     </row>
     <row r="243" spans="1:41">
       <c r="A243" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B243">
         <v>1</v>
       </c>
       <c r="C243">
-        <v>1020</v>
+        <v>972.7427283025324</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -31358,13 +31355,13 @@
     </row>
     <row r="244" spans="1:41">
       <c r="A244" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
       <c r="C244">
-        <v>1480</v>
+        <v>1401.753174264641</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -31480,13 +31477,13 @@
     </row>
     <row r="245" spans="1:41">
       <c r="A245" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
       <c r="C245">
-        <v>980</v>
+        <v>961.3778847738438</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -31602,13 +31599,13 @@
     </row>
     <row r="246" spans="1:41">
       <c r="A246" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B246">
         <v>0</v>
       </c>
       <c r="C246">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -31724,13 +31721,13 @@
     </row>
     <row r="247" spans="1:41">
       <c r="A247" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B247">
         <v>0</v>
       </c>
       <c r="C247">
-        <v>1450</v>
+        <v>1379.14068216006</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -31846,13 +31843,13 @@
     </row>
     <row r="248" spans="1:41">
       <c r="A248" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
       <c r="C248">
-        <v>6840</v>
+        <v>6255.426161047989</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -31968,13 +31965,13 @@
     </row>
     <row r="249" spans="1:41">
       <c r="A249" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B249">
         <v>0</v>
       </c>
       <c r="C249">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D249">
         <v>2500000</v>
@@ -32090,13 +32087,13 @@
     </row>
     <row r="250" spans="1:41">
       <c r="A250" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B250">
         <v>0</v>
       </c>
       <c r="C250">
-        <v>3230</v>
+        <v>2648.294169302945</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -32212,13 +32209,13 @@
     </row>
     <row r="251" spans="1:41">
       <c r="A251" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
       <c r="C251">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -32334,13 +32331,13 @@
     </row>
     <row r="252" spans="1:41">
       <c r="A252" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B252">
         <v>1</v>
       </c>
-      <c r="C252" t="s">
-        <v>112</v>
+      <c r="C252">
+        <v>0</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -32456,13 +32453,13 @@
     </row>
     <row r="253" spans="1:41">
       <c r="A253" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B253">
         <v>1</v>
       </c>
       <c r="C253">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -32578,13 +32575,13 @@
     </row>
     <row r="254" spans="1:41">
       <c r="A254" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
       <c r="C254">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D254">
         <v>2500000</v>
@@ -32700,13 +32697,13 @@
     </row>
     <row r="255" spans="1:41">
       <c r="A255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
       <c r="C255">
-        <v>1920</v>
+        <v>1627.760281433693</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -32822,13 +32819,13 @@
     </row>
     <row r="256" spans="1:41">
       <c r="A256" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B256">
         <v>0</v>
       </c>
       <c r="C256">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -32944,13 +32941,13 @@
     </row>
     <row r="257" spans="1:41">
       <c r="A257" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -33052,7 +33049,7 @@
         <v>0</v>
       </c>
       <c r="AL257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM257">
         <v>0</v>
@@ -33066,13 +33063,13 @@
     </row>
     <row r="258" spans="1:41">
       <c r="A258" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B258">
         <v>0</v>
       </c>
       <c r="C258">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -33188,13 +33185,13 @@
     </row>
     <row r="259" spans="1:41">
       <c r="A259" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B259">
         <v>0</v>
       </c>
       <c r="C259">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -33310,13 +33307,13 @@
     </row>
     <row r="260" spans="1:41">
       <c r="A260" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B260">
         <v>0</v>
       </c>
       <c r="C260">
-        <v>6840</v>
+        <v>5344.331964200195</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -33432,13 +33429,13 @@
     </row>
     <row r="261" spans="1:41">
       <c r="A261" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B261">
         <v>0</v>
       </c>
       <c r="C261">
-        <v>3830</v>
+        <v>3353.623382286602</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -33554,13 +33551,13 @@
     </row>
     <row r="262" spans="1:41">
       <c r="A262" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B262">
         <v>0</v>
       </c>
       <c r="C262">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -33676,13 +33673,13 @@
     </row>
     <row r="263" spans="1:41">
       <c r="A263" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B263">
         <v>1</v>
       </c>
       <c r="C263">
-        <v>1450</v>
+        <v>1338.851746632049</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -33798,13 +33795,13 @@
     </row>
     <row r="264" spans="1:41">
       <c r="A264" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B264">
         <v>0</v>
       </c>
       <c r="C264">
-        <v>7500</v>
+        <v>6753.607115829548</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -33920,13 +33917,13 @@
     </row>
     <row r="265" spans="1:41">
       <c r="A265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265">
-        <v>440</v>
+        <v>468.1130345750273</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -34042,13 +34039,13 @@
     </row>
     <row r="266" spans="1:41">
       <c r="A266" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
       <c r="C266">
-        <v>370</v>
+        <v>507.537974993908</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -34164,13 +34161,13 @@
     </row>
     <row r="267" spans="1:41">
       <c r="A267" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
       <c r="C267">
-        <v>810</v>
+        <v>707.8672001573369</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -34286,13 +34283,13 @@
     </row>
     <row r="268" spans="1:41">
       <c r="A268" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B268">
         <v>0</v>
       </c>
       <c r="C268">
-        <v>3060</v>
+        <v>3125.07948072635</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -34408,13 +34405,13 @@
     </row>
     <row r="269" spans="1:41">
       <c r="A269" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
       <c r="C269">
-        <v>10510</v>
+        <v>9839.050190896</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -34530,13 +34527,13 @@
     </row>
     <row r="270" spans="1:41">
       <c r="A270" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -34652,13 +34649,13 @@
     </row>
     <row r="271" spans="1:41">
       <c r="A271" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B271">
         <v>1</v>
       </c>
       <c r="C271">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -34774,13 +34771,13 @@
     </row>
     <row r="272" spans="1:41">
       <c r="A272" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B272">
         <v>0</v>
       </c>
       <c r="C272">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -34896,13 +34893,13 @@
     </row>
     <row r="273" spans="1:41">
       <c r="A273" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B273">
         <v>0</v>
       </c>
       <c r="C273">
-        <v>11040</v>
+        <v>10357.504182008</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -35018,13 +35015,13 @@
     </row>
     <row r="274" spans="1:41">
       <c r="A274" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B274">
         <v>0</v>
       </c>
       <c r="C274">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -35140,13 +35137,13 @@
     </row>
     <row r="275" spans="1:41">
       <c r="A275" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B275">
         <v>0</v>
       </c>
       <c r="C275">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -35262,7 +35259,7 @@
     </row>
     <row r="276" spans="1:41">
       <c r="A276" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -35384,13 +35381,13 @@
     </row>
     <row r="277" spans="1:41">
       <c r="A277" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B277">
         <v>0</v>
       </c>
       <c r="C277">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -35492,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="AL277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM277">
         <v>0</v>
@@ -35506,13 +35503,13 @@
     </row>
     <row r="278" spans="1:41">
       <c r="A278" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
       <c r="C278">
-        <v>720</v>
+        <v>723.2321880005983</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -35628,13 +35625,13 @@
     </row>
     <row r="279" spans="1:41">
       <c r="A279" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B279">
         <v>1</v>
       </c>
       <c r="C279">
-        <v>1380</v>
+        <v>1338.716747746975</v>
       </c>
       <c r="D279">
         <v>2500000</v>
@@ -35750,13 +35747,13 @@
     </row>
     <row r="280" spans="1:41">
       <c r="A280" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
       <c r="C280">
-        <v>700</v>
+        <v>567.8342670439314</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -35872,13 +35869,13 @@
     </row>
     <row r="281" spans="1:41">
       <c r="A281" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B281">
         <v>0</v>
       </c>
-      <c r="C281" t="s">
-        <v>112</v>
+      <c r="C281">
+        <v>0</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -35994,13 +35991,13 @@
     </row>
     <row r="282" spans="1:41">
       <c r="A282" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
-      <c r="C282" t="s">
-        <v>112</v>
+      <c r="C282">
+        <v>0</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -36116,13 +36113,13 @@
     </row>
     <row r="283" spans="1:41">
       <c r="A283" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B283">
         <v>1</v>
       </c>
       <c r="C283">
-        <v>1820</v>
+        <v>1782.74173912551</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -36238,13 +36235,13 @@
     </row>
     <row r="284" spans="1:41">
       <c r="A284" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
       <c r="C284">
-        <v>5760</v>
+        <v>5589.325590947018</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -36360,13 +36357,13 @@
     </row>
     <row r="285" spans="1:41">
       <c r="A285" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B285">
         <v>0</v>
       </c>
       <c r="C285">
-        <v>970</v>
+        <v>846.386841468855</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -36482,13 +36479,13 @@
     </row>
     <row r="286" spans="1:41">
       <c r="A286" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B286">
         <v>1</v>
       </c>
       <c r="C286">
-        <v>2960</v>
+        <v>898.5088439959784</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -36604,13 +36601,13 @@
     </row>
     <row r="287" spans="1:41">
       <c r="A287" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B287">
         <v>1</v>
       </c>
       <c r="C287">
-        <v>640</v>
+        <v>612.1489724037899</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -36726,13 +36723,13 @@
     </row>
     <row r="288" spans="1:41">
       <c r="A288" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B288">
         <v>1</v>
       </c>
       <c r="C288">
-        <v>690</v>
+        <v>886.4370030633224</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -36848,13 +36845,13 @@
     </row>
     <row r="289" spans="1:41">
       <c r="A289" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
       <c r="C289">
-        <v>1880</v>
+        <v>1579.189101937001</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -36970,13 +36967,13 @@
     </row>
     <row r="290" spans="1:41">
       <c r="A290" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
       <c r="C290">
-        <v>1800</v>
+        <v>1644.106712405582</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -37092,13 +37089,13 @@
     </row>
     <row r="291" spans="1:41">
       <c r="A291" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B291">
         <v>0</v>
       </c>
       <c r="C291">
-        <v>1260</v>
+        <v>1232.864865260161</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -37214,13 +37211,13 @@
     </row>
     <row r="292" spans="1:41">
       <c r="A292" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B292">
         <v>0</v>
       </c>
       <c r="C292">
-        <v>1100</v>
+        <v>831.8504623916352</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -37336,13 +37333,13 @@
     </row>
     <row r="293" spans="1:41">
       <c r="A293" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B293">
         <v>0</v>
       </c>
       <c r="C293">
-        <v>4520</v>
+        <v>3748.320622951519</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -37458,13 +37455,13 @@
     </row>
     <row r="294" spans="1:41">
       <c r="A294" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B294">
         <v>0</v>
       </c>
       <c r="C294">
-        <v>1220</v>
+        <v>1002.388731936373</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -37580,13 +37577,13 @@
     </row>
     <row r="295" spans="1:41">
       <c r="A295" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
       <c r="C295">
-        <v>860</v>
+        <v>1128.996380299766</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -37702,13 +37699,13 @@
     </row>
     <row r="296" spans="1:41">
       <c r="A296" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B296">
         <v>0</v>
       </c>
       <c r="C296">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -37824,13 +37821,13 @@
     </row>
     <row r="297" spans="1:41">
       <c r="A297" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B297">
         <v>0</v>
       </c>
       <c r="C297">
-        <v>10160</v>
+        <v>11431.15448084494</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -37946,13 +37943,13 @@
     </row>
     <row r="298" spans="1:41">
       <c r="A298" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
       <c r="C298">
-        <v>630</v>
+        <v>726.6520119370772</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -38068,13 +38065,13 @@
     </row>
     <row r="299" spans="1:41">
       <c r="A299" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
       <c r="C299">
-        <v>260</v>
+        <v>228.4325441716057</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -38190,13 +38187,13 @@
     </row>
     <row r="300" spans="1:41">
       <c r="A300" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B300">
         <v>0</v>
       </c>
       <c r="C300">
-        <v>1060</v>
+        <v>1024.621364522189</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -38312,13 +38309,13 @@
     </row>
     <row r="301" spans="1:41">
       <c r="A301" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B301">
         <v>0</v>
       </c>
       <c r="C301">
-        <v>1440</v>
+        <v>1441.783971398429</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -38434,13 +38431,13 @@
     </row>
     <row r="302" spans="1:41">
       <c r="A302" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B302">
         <v>0</v>
       </c>
       <c r="C302">
-        <v>880</v>
+        <v>956.659691840205</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -38556,13 +38553,13 @@
     </row>
     <row r="303" spans="1:41">
       <c r="A303" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B303">
         <v>0</v>
       </c>
       <c r="C303">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -38678,13 +38675,13 @@
     </row>
     <row r="304" spans="1:41">
       <c r="A304" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B304">
         <v>0</v>
       </c>
       <c r="C304">
-        <v>1480</v>
+        <v>1463.71052702022</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -38800,13 +38797,13 @@
     </row>
     <row r="305" spans="1:41">
       <c r="A305" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B305">
         <v>0</v>
       </c>
       <c r="C305">
-        <v>7230</v>
+        <v>6522.736799041846</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -38922,13 +38919,13 @@
     </row>
     <row r="306" spans="1:41">
       <c r="A306" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B306">
         <v>0</v>
       </c>
       <c r="C306">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D306">
         <v>2500000</v>
@@ -39044,13 +39041,13 @@
     </row>
     <row r="307" spans="1:41">
       <c r="A307" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B307">
         <v>0</v>
       </c>
       <c r="C307">
-        <v>3360</v>
+        <v>2703.742092148914</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -39166,13 +39163,13 @@
     </row>
     <row r="308" spans="1:41">
       <c r="A308" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B308">
         <v>0</v>
       </c>
       <c r="C308">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -39288,13 +39285,13 @@
     </row>
     <row r="309" spans="1:41">
       <c r="A309" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B309">
         <v>0</v>
       </c>
-      <c r="C309" t="s">
-        <v>112</v>
+      <c r="C309">
+        <v>0</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -39410,13 +39407,13 @@
     </row>
     <row r="310" spans="1:41">
       <c r="A310" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B310">
         <v>0</v>
       </c>
       <c r="C310">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D310">
         <v>200000</v>
@@ -39532,13 +39529,13 @@
     </row>
     <row r="311" spans="1:41">
       <c r="A311" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B311">
         <v>0</v>
       </c>
       <c r="C311">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D311">
         <v>2500000</v>
@@ -39654,13 +39651,13 @@
     </row>
     <row r="312" spans="1:41">
       <c r="A312" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B312">
         <v>0</v>
       </c>
       <c r="C312">
-        <v>1960</v>
+        <v>1625.905825842452</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -39776,13 +39773,13 @@
     </row>
     <row r="313" spans="1:41">
       <c r="A313" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B313">
         <v>0</v>
       </c>
       <c r="C313">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -39898,13 +39895,13 @@
     </row>
     <row r="314" spans="1:41">
       <c r="A314" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B314">
         <v>0</v>
       </c>
       <c r="C314">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -40006,7 +40003,7 @@
         <v>0</v>
       </c>
       <c r="AL314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM314">
         <v>0</v>
@@ -40020,13 +40017,13 @@
     </row>
     <row r="315" spans="1:41">
       <c r="A315" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B315">
         <v>0</v>
       </c>
       <c r="C315">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -40142,13 +40139,13 @@
     </row>
     <row r="316" spans="1:41">
       <c r="A316" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B316">
         <v>0</v>
       </c>
       <c r="C316">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -40264,13 +40261,13 @@
     </row>
     <row r="317" spans="1:41">
       <c r="A317" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B317">
         <v>0</v>
       </c>
       <c r="C317">
-        <v>5940</v>
+        <v>5298.103912121626</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -40386,13 +40383,13 @@
     </row>
     <row r="318" spans="1:41">
       <c r="A318" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B318">
         <v>0</v>
       </c>
       <c r="C318">
-        <v>3870</v>
+        <v>3305.422815235401</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -40508,13 +40505,13 @@
     </row>
     <row r="319" spans="1:41">
       <c r="A319" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B319">
         <v>0</v>
       </c>
       <c r="C319">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -40630,13 +40627,13 @@
     </row>
     <row r="320" spans="1:41">
       <c r="A320" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B320">
         <v>0</v>
       </c>
       <c r="C320">
-        <v>1400</v>
+        <v>1363.931408033217</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -40752,13 +40749,13 @@
     </row>
     <row r="321" spans="1:41">
       <c r="A321" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B321">
         <v>0</v>
       </c>
       <c r="C321">
-        <v>7290</v>
+        <v>6487.899081675427</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -40874,13 +40871,13 @@
     </row>
     <row r="322" spans="1:41">
       <c r="A322" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B322">
         <v>0</v>
       </c>
       <c r="C322">
-        <v>420</v>
+        <v>469.9423670895969</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -40996,13 +40993,13 @@
     </row>
     <row r="323" spans="1:41">
       <c r="A323" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B323">
         <v>0</v>
       </c>
       <c r="C323">
-        <v>350</v>
+        <v>507.5484050163182</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -41118,13 +41115,13 @@
     </row>
     <row r="324" spans="1:41">
       <c r="A324" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B324">
         <v>0</v>
       </c>
       <c r="C324">
-        <v>790</v>
+        <v>729.7808175407341</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -41240,13 +41237,13 @@
     </row>
     <row r="325" spans="1:41">
       <c r="A325" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B325">
         <v>0</v>
       </c>
       <c r="C325">
-        <v>3020</v>
+        <v>3222.05417836739</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -41362,13 +41359,13 @@
     </row>
     <row r="326" spans="1:41">
       <c r="A326" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B326">
         <v>0</v>
       </c>
       <c r="C326">
-        <v>10170</v>
+        <v>10037.20149040966</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -41484,13 +41481,13 @@
     </row>
     <row r="327" spans="1:41">
       <c r="A327" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B327">
         <v>0</v>
       </c>
       <c r="C327">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -41606,13 +41603,13 @@
     </row>
     <row r="328" spans="1:41">
       <c r="A328" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B328">
         <v>0</v>
       </c>
       <c r="C328">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -41728,13 +41725,13 @@
     </row>
     <row r="329" spans="1:41">
       <c r="A329" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B329">
         <v>0</v>
       </c>
       <c r="C329">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -41850,13 +41847,13 @@
     </row>
     <row r="330" spans="1:41">
       <c r="A330" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B330">
         <v>0</v>
       </c>
       <c r="C330">
-        <v>11740</v>
+        <v>10765.91029414483</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -41972,13 +41969,13 @@
     </row>
     <row r="331" spans="1:41">
       <c r="A331" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B331">
         <v>0</v>
       </c>
       <c r="C331">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -42094,13 +42091,13 @@
     </row>
     <row r="332" spans="1:41">
       <c r="A332" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B332">
         <v>0</v>
       </c>
       <c r="C332">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -42216,7 +42213,7 @@
     </row>
     <row r="333" spans="1:41">
       <c r="A333" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -42338,13 +42335,13 @@
     </row>
     <row r="334" spans="1:41">
       <c r="A334" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B334">
         <v>0</v>
       </c>
       <c r="C334">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -42446,7 +42443,7 @@
         <v>0</v>
       </c>
       <c r="AL334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM334">
         <v>0</v>
@@ -42460,13 +42457,13 @@
     </row>
     <row r="335" spans="1:41">
       <c r="A335" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B335">
         <v>0</v>
       </c>
       <c r="C335">
-        <v>730</v>
+        <v>767.6026452352251</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -42582,13 +42579,13 @@
     </row>
     <row r="336" spans="1:41">
       <c r="A336" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B336">
         <v>0</v>
       </c>
       <c r="C336">
-        <v>1320</v>
+        <v>1384.519227335143</v>
       </c>
       <c r="D336">
         <v>2500000</v>
@@ -42704,13 +42701,13 @@
     </row>
     <row r="337" spans="1:41">
       <c r="A337" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B337">
         <v>0</v>
       </c>
       <c r="C337">
-        <v>550</v>
+        <v>441.1376640642927</v>
       </c>
       <c r="D337">
         <v>318950</v>
@@ -42826,13 +42823,13 @@
     </row>
     <row r="338" spans="1:41">
       <c r="A338" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B338">
         <v>0</v>
       </c>
-      <c r="C338" t="s">
-        <v>112</v>
+      <c r="C338">
+        <v>0</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -42948,13 +42945,13 @@
     </row>
     <row r="339" spans="1:41">
       <c r="A339" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B339">
         <v>0</v>
       </c>
-      <c r="C339" t="s">
-        <v>112</v>
+      <c r="C339">
+        <v>0</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -43070,13 +43067,13 @@
     </row>
     <row r="340" spans="1:41">
       <c r="A340" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B340">
         <v>0</v>
       </c>
       <c r="C340">
-        <v>1980</v>
+        <v>1825.72155898504</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -43192,13 +43189,13 @@
     </row>
     <row r="341" spans="1:41">
       <c r="A341" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B341">
         <v>0</v>
       </c>
       <c r="C341">
-        <v>5710</v>
+        <v>5741.353911483523</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -43314,13 +43311,13 @@
     </row>
     <row r="342" spans="1:41">
       <c r="A342" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B342">
         <v>0</v>
       </c>
       <c r="C342">
-        <v>980</v>
+        <v>871.998368594318</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -43436,13 +43433,13 @@
     </row>
     <row r="343" spans="1:41">
       <c r="A343" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B343">
         <v>0</v>
       </c>
       <c r="C343">
-        <v>3080</v>
+        <v>908.9610896585331</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -43558,13 +43555,13 @@
     </row>
     <row r="344" spans="1:41">
       <c r="A344" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B344">
         <v>0</v>
       </c>
       <c r="C344">
-        <v>640</v>
+        <v>630.9372503341563</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -43680,13 +43677,13 @@
     </row>
     <row r="345" spans="1:41">
       <c r="A345" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B345">
         <v>0</v>
       </c>
       <c r="C345">
-        <v>700</v>
+        <v>900.3889853519216</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -43802,13 +43799,13 @@
     </row>
     <row r="346" spans="1:41">
       <c r="A346" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B346">
         <v>0</v>
       </c>
       <c r="C346">
-        <v>1970</v>
+        <v>1667.171891046301</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -43924,13 +43921,13 @@
     </row>
     <row r="347" spans="1:41">
       <c r="A347" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B347">
         <v>0</v>
       </c>
       <c r="C347">
-        <v>1580</v>
+        <v>1641.006984799246</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -44046,13 +44043,13 @@
     </row>
     <row r="348" spans="1:41">
       <c r="A348" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B348">
         <v>0</v>
       </c>
       <c r="C348">
-        <v>1280</v>
+        <v>1234.103352230985</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -44168,13 +44165,13 @@
     </row>
     <row r="349" spans="1:41">
       <c r="A349" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B349">
         <v>0</v>
       </c>
       <c r="C349">
-        <v>1020</v>
+        <v>730.9320426740553</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -44290,13 +44287,13 @@
     </row>
     <row r="350" spans="1:41">
       <c r="A350" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B350">
         <v>1</v>
       </c>
       <c r="C350">
-        <v>3770</v>
+        <v>3530.309422482455</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -44412,13 +44409,13 @@
     </row>
     <row r="351" spans="1:41">
       <c r="A351" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B351">
         <v>1</v>
       </c>
       <c r="C351">
-        <v>820</v>
+        <v>1134.924536209078</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -44534,13 +44531,13 @@
     </row>
     <row r="352" spans="1:41">
       <c r="A352" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B352">
         <v>0</v>
       </c>
       <c r="C352">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -44656,13 +44653,13 @@
     </row>
     <row r="353" spans="1:41">
       <c r="A353" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B353">
         <v>0</v>
       </c>
       <c r="C353">
-        <v>8930</v>
+        <v>10965.97426143915</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -44778,13 +44775,13 @@
     </row>
     <row r="354" spans="1:41">
       <c r="A354" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B354">
         <v>1</v>
       </c>
       <c r="C354">
-        <v>600</v>
+        <v>747.8284752776283</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -44900,13 +44897,13 @@
     </row>
     <row r="355" spans="1:41">
       <c r="A355" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B355">
         <v>1</v>
       </c>
       <c r="C355">
-        <v>270</v>
+        <v>219.9614977577509</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -45022,13 +45019,13 @@
     </row>
     <row r="356" spans="1:41">
       <c r="A356" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B356">
         <v>1</v>
       </c>
       <c r="C356">
-        <v>1140</v>
+        <v>1079.630539001193</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -45144,13 +45141,13 @@
     </row>
     <row r="357" spans="1:41">
       <c r="A357" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B357">
         <v>0</v>
       </c>
       <c r="C357">
-        <v>1380</v>
+        <v>1469.192636109792</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -45266,13 +45263,13 @@
     </row>
     <row r="358" spans="1:41">
       <c r="A358" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B358">
         <v>1</v>
       </c>
       <c r="C358">
-        <v>730</v>
+        <v>869.0586852798759</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -45388,13 +45385,13 @@
     </row>
     <row r="359" spans="1:41">
       <c r="A359" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B359">
         <v>0</v>
       </c>
       <c r="C359">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -45510,13 +45507,13 @@
     </row>
     <row r="360" spans="1:41">
       <c r="A360" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B360">
         <v>0</v>
       </c>
       <c r="C360">
-        <v>1820</v>
+        <v>2854.757682901436</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -45632,13 +45629,13 @@
     </row>
     <row r="361" spans="1:41">
       <c r="A361" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B361">
         <v>0</v>
       </c>
       <c r="C361">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D361">
         <v>263909</v>
@@ -45754,13 +45751,13 @@
     </row>
     <row r="362" spans="1:41">
       <c r="A362" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B362">
         <v>0</v>
       </c>
       <c r="C362">
-        <v>3460</v>
+        <v>2761.386198249428</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -45876,13 +45873,13 @@
     </row>
     <row r="363" spans="1:41">
       <c r="A363" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B363">
         <v>0</v>
       </c>
       <c r="C363">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -45998,13 +45995,13 @@
     </row>
     <row r="364" spans="1:41">
       <c r="A364" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B364">
         <v>1</v>
       </c>
-      <c r="C364" t="s">
-        <v>112</v>
+      <c r="C364">
+        <v>0</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -46120,13 +46117,13 @@
     </row>
     <row r="365" spans="1:41">
       <c r="A365" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B365">
         <v>1</v>
       </c>
       <c r="C365">
-        <v>660</v>
+        <v>514.0573067519859</v>
       </c>
       <c r="D365">
         <v>200000</v>
@@ -46242,13 +46239,13 @@
     </row>
     <row r="366" spans="1:41">
       <c r="A366" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B366">
         <v>0</v>
       </c>
       <c r="C366">
-        <v>3570</v>
+        <v>2886.897484630703</v>
       </c>
       <c r="D366">
         <v>0</v>
@@ -46364,13 +46361,13 @@
     </row>
     <row r="367" spans="1:41">
       <c r="A367" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B367">
         <v>0</v>
       </c>
       <c r="C367">
-        <v>1830</v>
+        <v>1644.598009122967</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -46486,13 +46483,13 @@
     </row>
     <row r="368" spans="1:41">
       <c r="A368" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B368">
         <v>0</v>
       </c>
       <c r="C368">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -46608,13 +46605,13 @@
     </row>
     <row r="369" spans="1:41">
       <c r="A369" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B369">
         <v>1</v>
       </c>
       <c r="C369">
-        <v>650</v>
+        <v>594.9783586927158</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -46730,13 +46727,13 @@
     </row>
     <row r="370" spans="1:41">
       <c r="A370" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B370">
         <v>1</v>
       </c>
       <c r="C370">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D370">
         <v>0</v>
@@ -46838,7 +46835,7 @@
         <v>0</v>
       </c>
       <c r="AL370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM370">
         <v>0</v>
@@ -46852,13 +46849,13 @@
     </row>
     <row r="371" spans="1:41">
       <c r="A371" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B371">
         <v>0</v>
       </c>
       <c r="C371">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D371">
         <v>0</v>
@@ -46974,13 +46971,13 @@
     </row>
     <row r="372" spans="1:41">
       <c r="A372" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B372">
         <v>0</v>
       </c>
       <c r="C372">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -47096,13 +47093,13 @@
     </row>
     <row r="373" spans="1:41">
       <c r="A373" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B373">
         <v>0</v>
       </c>
       <c r="C373">
-        <v>5520</v>
+        <v>5930.948814841904</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -47218,13 +47215,13 @@
     </row>
     <row r="374" spans="1:41">
       <c r="A374" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B374">
         <v>0</v>
       </c>
       <c r="C374">
-        <v>3930</v>
+        <v>3271.088200372761</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -47340,13 +47337,13 @@
     </row>
     <row r="375" spans="1:41">
       <c r="A375" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B375">
         <v>0</v>
       </c>
       <c r="C375">
-        <v>1360</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -47462,13 +47459,13 @@
     </row>
     <row r="376" spans="1:41">
       <c r="A376" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B376">
         <v>0</v>
       </c>
       <c r="C376">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -47584,13 +47581,13 @@
     </row>
     <row r="377" spans="1:41">
       <c r="A377" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B377">
         <v>1</v>
       </c>
       <c r="C377">
-        <v>400</v>
+        <v>475.7454935403655</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -47706,13 +47703,13 @@
     </row>
     <row r="378" spans="1:41">
       <c r="A378" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B378">
         <v>1</v>
       </c>
       <c r="C378">
-        <v>340</v>
+        <v>506.2496613373833</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -47828,13 +47825,13 @@
     </row>
     <row r="379" spans="1:41">
       <c r="A379" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B379">
         <v>1</v>
       </c>
       <c r="C379">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -47950,13 +47947,13 @@
     </row>
     <row r="380" spans="1:41">
       <c r="A380" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B380">
         <v>0</v>
       </c>
       <c r="C380">
-        <v>2890</v>
+        <v>3212.81539531051</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -48072,13 +48069,13 @@
     </row>
     <row r="381" spans="1:41">
       <c r="A381" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B381">
         <v>1</v>
       </c>
       <c r="C381">
-        <v>1160</v>
+        <v>1705.033923663474</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -48194,13 +48191,13 @@
     </row>
     <row r="382" spans="1:41">
       <c r="A382" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B382">
         <v>0</v>
       </c>
       <c r="C382">
-        <v>9410</v>
+        <v>10205.79575322194</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -48316,13 +48313,13 @@
     </row>
     <row r="383" spans="1:41">
       <c r="A383" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B383">
         <v>1</v>
       </c>
       <c r="C383">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -48438,13 +48435,13 @@
     </row>
     <row r="384" spans="1:41">
       <c r="A384" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B384">
         <v>0</v>
       </c>
       <c r="C384">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -48560,13 +48557,13 @@
     </row>
     <row r="385" spans="1:41">
       <c r="A385" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B385">
         <v>0</v>
       </c>
       <c r="C385">
-        <v>12390</v>
+        <v>11107.22332817951</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -48682,13 +48679,13 @@
     </row>
     <row r="386" spans="1:41">
       <c r="A386" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B386">
         <v>0</v>
       </c>
       <c r="C386">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D386">
         <v>0</v>
@@ -48804,13 +48801,13 @@
     </row>
     <row r="387" spans="1:41">
       <c r="A387" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B387">
         <v>0</v>
       </c>
       <c r="C387">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -48926,13 +48923,13 @@
     </row>
     <row r="388" spans="1:41">
       <c r="A388" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B388">
         <v>1</v>
       </c>
       <c r="C388">
-        <v>410</v>
+        <v>359.6000402964525</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -49048,13 +49045,13 @@
     </row>
     <row r="389" spans="1:41">
       <c r="A389" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B389">
         <v>0</v>
       </c>
       <c r="C389">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -49156,7 +49153,7 @@
         <v>0</v>
       </c>
       <c r="AL389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM389">
         <v>0</v>
@@ -49170,13 +49167,13 @@
     </row>
     <row r="390" spans="1:41">
       <c r="A390" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B390">
         <v>1</v>
       </c>
       <c r="C390">
-        <v>720</v>
+        <v>792.6212731169028</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -49292,13 +49289,13 @@
     </row>
     <row r="391" spans="1:41">
       <c r="A391" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B391">
         <v>1</v>
       </c>
       <c r="C391">
-        <v>1270</v>
+        <v>1431.756130822538</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -49414,13 +49411,13 @@
     </row>
     <row r="392" spans="1:41">
       <c r="A392" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B392">
         <v>1</v>
       </c>
       <c r="C392">
-        <v>490</v>
+        <v>457.8330917196623</v>
       </c>
       <c r="D392">
         <v>318950</v>
@@ -49536,13 +49533,13 @@
     </row>
     <row r="393" spans="1:41">
       <c r="A393" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B393">
         <v>1</v>
       </c>
-      <c r="C393" t="s">
-        <v>112</v>
+      <c r="C393">
+        <v>0</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -49658,13 +49655,13 @@
     </row>
     <row r="394" spans="1:41">
       <c r="A394" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B394">
         <v>1</v>
       </c>
       <c r="C394">
-        <v>2130</v>
+        <v>1866.22170375365</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -49780,13 +49777,13 @@
     </row>
     <row r="395" spans="1:41">
       <c r="A395" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B395">
         <v>0</v>
       </c>
       <c r="C395">
-        <v>5690</v>
+        <v>5916.126072105049</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -49902,13 +49899,13 @@
     </row>
     <row r="396" spans="1:41">
       <c r="A396" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B396">
         <v>0</v>
       </c>
       <c r="C396">
-        <v>970</v>
+        <v>904.381892324943</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -50024,7 +50021,7 @@
     </row>
     <row r="397" spans="1:41">
       <c r="A397" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -50146,13 +50143,13 @@
     </row>
     <row r="398" spans="1:41">
       <c r="A398" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B398">
         <v>1</v>
       </c>
       <c r="C398">
-        <v>2370</v>
+        <v>923.4897882577975</v>
       </c>
       <c r="D398">
         <v>0</v>
@@ -50268,13 +50265,13 @@
     </row>
     <row r="399" spans="1:41">
       <c r="A399" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B399">
         <v>1</v>
       </c>
       <c r="C399">
-        <v>610</v>
+        <v>649.4459389945755</v>
       </c>
       <c r="D399">
         <v>0</v>
@@ -50390,13 +50387,13 @@
     </row>
     <row r="400" spans="1:41">
       <c r="A400" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B400">
         <v>1</v>
       </c>
       <c r="C400">
-        <v>660</v>
+        <v>909.5979669529498</v>
       </c>
       <c r="D400">
         <v>0</v>
@@ -50512,13 +50509,13 @@
     </row>
     <row r="401" spans="1:41">
       <c r="A401" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B401">
         <v>0</v>
       </c>
       <c r="C401">
-        <v>2080</v>
+        <v>1752.531946133768</v>
       </c>
       <c r="D401">
         <v>0</v>
@@ -50634,13 +50631,13 @@
     </row>
     <row r="402" spans="1:41">
       <c r="A402" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B402">
         <v>1</v>
       </c>
       <c r="C402">
-        <v>1380</v>
+        <v>1652.598055406138</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -50756,13 +50753,13 @@
     </row>
     <row r="403" spans="1:41">
       <c r="A403" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B403">
         <v>0</v>
       </c>
       <c r="C403">
-        <v>1290</v>
+        <v>1224.309922120837</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -50878,13 +50875,13 @@
     </row>
     <row r="404" spans="1:41">
       <c r="A404" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B404">
         <v>0</v>
       </c>
       <c r="C404">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -51000,13 +50997,13 @@
     </row>
     <row r="405" spans="1:41">
       <c r="A405" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B405">
         <v>0</v>
       </c>
       <c r="C405">
-        <v>2470</v>
+        <v>2456.306188142903</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -51122,13 +51119,13 @@
     </row>
     <row r="406" spans="1:41">
       <c r="A406" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B406">
         <v>0</v>
       </c>
       <c r="C406">
-        <v>7080</v>
+        <v>9429.046318403836</v>
       </c>
       <c r="D406">
         <v>0</v>
@@ -51244,13 +51241,13 @@
     </row>
     <row r="407" spans="1:41">
       <c r="A407" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B407">
         <v>0</v>
       </c>
       <c r="C407">
-        <v>36460</v>
+        <v>33720.76449760239</v>
       </c>
       <c r="D407">
         <v>0</v>

--- a/output/manos unidas.xlsx
+++ b/output/manos unidas.xlsx
@@ -3664,10 +3664,10 @@
         <v>56</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1068.16851075414</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -7934,10 +7934,10 @@
         <v>91</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1140.599204787031</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -9767,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>334.0215725731523</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>100.56</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2354.125986718473</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>345.2661148508273</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -15016,7 +15016,7 @@
         <v>369.2024078290272</v>
       </c>
       <c r="D110">
-        <v>4300000</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>1242158</v>
@@ -15379,7 +15379,7 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>298.44</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -16968,7 +16968,7 @@
         <v>4921.848409120176</v>
       </c>
       <c r="D126">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>2189000</v>
@@ -23797,7 +23797,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>417.09</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -24285,7 +24285,7 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>324.71</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -24413,7 +24413,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>230345</v>
+        <v>535473</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -24535,7 +24535,7 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>4343240.5</v>
+        <v>9109043</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>86493</v>
+        <v>243024</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>257460</v>
       </c>
       <c r="E190">
-        <v>336972.79</v>
+        <v>437634</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>83350.5</v>
+        <v>99465</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -25023,7 +25023,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>87164.5</v>
+        <v>90547</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -25145,7 +25145,7 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>2495.5</v>
+        <v>0</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -25267,7 +25267,7 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>116486</v>
+        <v>476886</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -25389,7 +25389,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>456867.05</v>
+        <v>1612528</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -25511,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>415805.5</v>
+        <v>1428311</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>101489</v>
+        <v>725813</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>133081.5</v>
+        <v>220631</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>181372</v>
+        <v>471857</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -25999,7 +25999,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>34908</v>
+        <v>285374</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -26121,7 +26121,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>203655</v>
+        <v>410204</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -26243,7 +26243,7 @@
         <v>199927</v>
       </c>
       <c r="E202">
-        <v>1067597.455</v>
+        <v>1896610</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -26365,7 +26365,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>329434.5</v>
+        <v>788106</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -26487,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>191143</v>
+        <v>673023</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -26609,7 +26609,7 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>207243</v>
+        <v>199654</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -26731,7 +26731,7 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>133736.5</v>
+        <v>202587</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -26853,7 +26853,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>1085782</v>
+        <v>0</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>31157</v>
+        <v>124219</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -27097,7 +27097,7 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>62100</v>
+        <v>0</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -27219,7 +27219,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>17634</v>
+        <v>0</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -27341,7 +27341,7 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>88139.5</v>
+        <v>330354</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -27463,7 +27463,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>348209.5</v>
+        <v>427434</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>304374</v>
+        <v>527370</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>237108</v>
+        <v>510693</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -27829,7 +27829,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>147184.5</v>
+        <v>225711</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -27951,7 +27951,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>274540</v>
+        <v>287031</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>205002.5</v>
+        <v>597664</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -28195,7 +28195,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>68434.5</v>
+        <v>0</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -28317,7 +28317,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>454830</v>
+        <v>33525</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -28439,7 +28439,7 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>19939</v>
+        <v>0</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>7066</v>
+        <v>0</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -28683,7 +28683,7 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>373973.5</v>
+        <v>712467</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -28805,7 +28805,7 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>436089.5</v>
+        <v>596789</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -28927,7 +28927,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>10127.5</v>
+        <v>321994</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>301920</v>
+        <v>598420</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>78978.5</v>
+        <v>188181</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -29290,10 +29290,10 @@
         <v>1291.415042301529</v>
       </c>
       <c r="D227">
-        <v>279798</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>85893</v>
+        <v>231409</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -29415,7 +29415,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>212614.5</v>
+        <v>339417</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>388785</v>
+        <v>336018</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -29659,7 +29659,7 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>191831.5</v>
+        <v>295950</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -29775,13 +29775,13 @@
         <v>1</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>343.26</v>
       </c>
       <c r="D231">
         <v>0</v>
       </c>
       <c r="E231">
-        <v>66351.5</v>
+        <v>100000</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -29903,7 +29903,7 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>443326.275</v>
+        <v>1365143</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>565444</v>
+        <v>580842</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>165441</v>
+        <v>225045</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -30263,13 +30263,13 @@
         <v>1</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>329.58</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>22298.5</v>
+        <v>264405</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>2286.013198234259</v>
       </c>
       <c r="D239">
-        <v>199927</v>
+        <v>0</v>
       </c>
       <c r="E239">
         <v>1067597.455</v>
@@ -32337,7 +32337,7 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>447.27</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -35265,7 +35265,7 @@
         <v>1</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>397.3416704698143</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -35875,7 +35875,7 @@
         <v>0</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>1366.25</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -35997,7 +35997,7 @@
         <v>1</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>324.64</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         <v>332</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293">
         <v>3748.320622951519</v>
@@ -37345,7 +37345,7 @@
         <v>0</v>
       </c>
       <c r="E293">
-        <v>216602.5</v>
+        <v>0</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>333</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294">
         <v>1002.388731936373</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="E294">
-        <v>58960.5</v>
+        <v>86493</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -37580,7 +37580,7 @@
         <v>334</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295">
         <v>1128.996380299766</v>
@@ -37589,7 +37589,7 @@
         <v>0</v>
       </c>
       <c r="E295">
-        <v>393638</v>
+        <v>373973.5</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -37711,7 +37711,7 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>816313.4350000001</v>
+        <v>1067597.455</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -37833,7 +37833,7 @@
         <v>0</v>
       </c>
       <c r="E297">
-        <v>326496</v>
+        <v>329434.5</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -37946,7 +37946,7 @@
         <v>337</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298">
         <v>726.6520119370772</v>
@@ -37955,7 +37955,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>308449</v>
+        <v>436089.5</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -38068,7 +38068,7 @@
         <v>338</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299">
         <v>228.4325441716057</v>
@@ -38077,7 +38077,7 @@
         <v>0</v>
       </c>
       <c r="E299">
-        <v>52357</v>
+        <v>191831.5</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>339</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300">
         <v>1024.621364522189</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>97203.5</v>
+        <v>230345</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -38321,7 +38321,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>255437.5</v>
+        <v>205002.5</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -38434,7 +38434,7 @@
         <v>341</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302">
         <v>956.659691840205</v>
@@ -38443,7 +38443,7 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>9447.5</v>
+        <v>68434.5</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -38565,7 +38565,7 @@
         <v>0</v>
       </c>
       <c r="E303">
-        <v>248913.5</v>
+        <v>191143</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -38687,7 +38687,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>17454.5</v>
+        <v>10127.5</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -38809,7 +38809,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>21790.5</v>
+        <v>2495.5</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -38928,10 +38928,10 @@
         <v>5330.539154475424</v>
       </c>
       <c r="D306">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E306">
-        <v>63037</v>
+        <v>207243</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -39053,7 +39053,7 @@
         <v>0</v>
       </c>
       <c r="E307">
-        <v>84204.5</v>
+        <v>0</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -39175,7 +39175,7 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>354319.415</v>
+        <v>116486</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -39288,16 +39288,16 @@
         <v>348</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>436.09</v>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>85871</v>
+        <v>66351.5</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -39410,7 +39410,7 @@
         <v>349</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310">
         <v>482.6390663355013</v>
@@ -39419,7 +39419,7 @@
         <v>200000</v>
       </c>
       <c r="E310">
-        <v>574390</v>
+        <v>443326.275</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -39538,10 +39538,10 @@
         <v>2735.187532014817</v>
       </c>
       <c r="D311">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E311">
-        <v>60773.5</v>
+        <v>336972.79</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -39663,7 +39663,7 @@
         <v>0</v>
       </c>
       <c r="E312">
-        <v>317405</v>
+        <v>301920</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -39785,7 +39785,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>800100.53</v>
+        <v>456867.05</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -39898,7 +39898,7 @@
         <v>353</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314">
         <v>729.1196658666737</v>
@@ -39907,7 +39907,7 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>251909.5</v>
+        <v>415805.5</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -40029,7 +40029,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>129494.5</v>
+        <v>101489</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -40151,7 +40151,7 @@
         <v>0</v>
       </c>
       <c r="E316">
-        <v>4481254</v>
+        <v>4343240.5</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -40273,7 +40273,7 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>27866.5</v>
+        <v>0</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -40395,7 +40395,7 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>66782.5</v>
+        <v>62100</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -40517,7 +40517,7 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>445480</v>
+        <v>565444</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -40630,7 +40630,7 @@
         <v>359</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320">
         <v>1363.931408033217</v>
@@ -40639,7 +40639,7 @@
         <v>0</v>
       </c>
       <c r="E320">
-        <v>16333.5</v>
+        <v>17634</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -40761,7 +40761,7 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>74502</v>
+        <v>0</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -40874,7 +40874,7 @@
         <v>361</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322">
         <v>469.9423670895969</v>
@@ -40883,7 +40883,7 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>312978</v>
+        <v>88139.5</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -40996,7 +40996,7 @@
         <v>362</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323">
         <v>507.5484050163182</v>
@@ -41005,7 +41005,7 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>230827.5</v>
+        <v>348209.5</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -41118,7 +41118,7 @@
         <v>363</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324">
         <v>729.7808175407341</v>
@@ -41127,7 +41127,7 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>337751.035</v>
+        <v>0</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -41249,7 +41249,7 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>224486</v>
+        <v>0</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -41371,7 +41371,7 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>93539.5</v>
+        <v>133081.5</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -41484,7 +41484,7 @@
         <v>366</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327">
         <v>579.0880693780265</v>
@@ -41493,7 +41493,7 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>309027</v>
+        <v>304374</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -41606,7 +41606,7 @@
         <v>367</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328">
         <v>731.9993357350996</v>
@@ -41615,7 +41615,7 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>109164</v>
+        <v>0</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -41737,7 +41737,7 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <v>464284.5</v>
+        <v>181372</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -41859,7 +41859,7 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>64454.5</v>
+        <v>34908</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -41981,7 +41981,7 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>287860</v>
+        <v>133736.5</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -42103,7 +42103,7 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <v>1348688.375</v>
+        <v>1085782</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -42216,16 +42216,16 @@
         <v>372</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333">
-        <v>0</v>
+        <v>411.0205730866137</v>
       </c>
       <c r="D333">
         <v>0</v>
       </c>
       <c r="E333">
-        <v>851472</v>
+        <v>0</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -42347,7 +42347,7 @@
         <v>0</v>
       </c>
       <c r="E334">
-        <v>355193.5</v>
+        <v>203655</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -42460,7 +42460,7 @@
         <v>374</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335">
         <v>767.6026452352251</v>
@@ -42469,7 +42469,7 @@
         <v>0</v>
       </c>
       <c r="E335">
-        <v>204032.5</v>
+        <v>165441</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -42582,16 +42582,16 @@
         <v>375</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336">
         <v>1384.519227335143</v>
       </c>
       <c r="D336">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E336">
-        <v>313169</v>
+        <v>85893</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -42704,7 +42704,7 @@
         <v>376</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337">
         <v>441.1376640642927</v>
@@ -42713,7 +42713,7 @@
         <v>318950</v>
       </c>
       <c r="E337">
-        <v>526964</v>
+        <v>212614.5</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -42829,13 +42829,13 @@
         <v>0</v>
       </c>
       <c r="C338">
-        <v>0</v>
+        <v>1404.51</v>
       </c>
       <c r="D338">
         <v>0</v>
       </c>
       <c r="E338">
-        <v>5586.5</v>
+        <v>0</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -42948,16 +42948,16 @@
         <v>378</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339">
-        <v>0</v>
+        <v>386.32</v>
       </c>
       <c r="D339">
         <v>0</v>
       </c>
       <c r="E339">
-        <v>61683</v>
+        <v>22298.5</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -43070,7 +43070,7 @@
         <v>379</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340">
         <v>1825.72155898504</v>
@@ -43079,7 +43079,7 @@
         <v>0</v>
       </c>
       <c r="E340">
-        <v>22500</v>
+        <v>0</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -43201,7 +43201,7 @@
         <v>0</v>
       </c>
       <c r="E341">
-        <v>106021</v>
+        <v>87164.5</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -43323,7 +43323,7 @@
         <v>0</v>
       </c>
       <c r="E342">
-        <v>305261</v>
+        <v>237108</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -43436,7 +43436,7 @@
         <v>382</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343">
         <v>908.9610896585331</v>
@@ -43445,7 +43445,7 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>37693</v>
+        <v>0</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -43558,7 +43558,7 @@
         <v>383</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344">
         <v>630.9372503341563</v>
@@ -43567,7 +43567,7 @@
         <v>0</v>
       </c>
       <c r="E344">
-        <v>240179.5</v>
+        <v>388785</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -43680,7 +43680,7 @@
         <v>384</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345">
         <v>900.3889853519216</v>
@@ -43689,7 +43689,7 @@
         <v>0</v>
       </c>
       <c r="E345">
-        <v>135386.5</v>
+        <v>0</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -43811,7 +43811,7 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>56059.5</v>
+        <v>0</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -43924,7 +43924,7 @@
         <v>386</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347">
         <v>1641.006984799246</v>
@@ -43933,7 +43933,7 @@
         <v>0</v>
       </c>
       <c r="E347">
-        <v>258218</v>
+        <v>147184.5</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -44055,7 +44055,7 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>213783.5</v>
+        <v>274540</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -44177,7 +44177,7 @@
         <v>0</v>
       </c>
       <c r="E349">
-        <v>133952</v>
+        <v>0</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -46001,7 +46001,7 @@
         <v>1</v>
       </c>
       <c r="C364">
-        <v>0</v>
+        <v>469.23</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -46126,7 +46126,7 @@
         <v>514.0573067519859</v>
       </c>
       <c r="D365">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E365">
         <v>574390</v>
@@ -49420,7 +49420,7 @@
         <v>457.8330917196623</v>
       </c>
       <c r="D392">
-        <v>318950</v>
+        <v>0</v>
       </c>
       <c r="E392">
         <v>526964</v>
@@ -49539,7 +49539,7 @@
         <v>1</v>
       </c>
       <c r="C393">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -50027,7 +50027,7 @@
         <v>0</v>
       </c>
       <c r="C397">
-        <v>0</v>
+        <v>2694.5225262147</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -50881,7 +50881,7 @@
         <v>0</v>
       </c>
       <c r="C404">
-        <v>0</v>
+        <v>171.03</v>
       </c>
       <c r="D404">
         <v>0</v>
